--- a/과제/MP4/MP4.xlsx
+++ b/과제/MP4/MP4.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,19 +466,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME (feat. 태양, 대성)</t>
+          <t>UP N DOWN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>은혁 (EUNHYUK)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -486,19 +486,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>REBEL HEART</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -506,19 +506,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>Whiplash</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -526,19 +526,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>toxic till the end</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>로제(ROSÉ)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -546,19 +546,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>Drowning</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>WOODZ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -566,19 +566,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>toxic till the end</t>
+          <t>APT.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>로제(ROSÉ)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -586,19 +586,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Drowning</t>
+          <t>HOME SWEET HOME (feat. 태양, 대성)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>WOODZ</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -606,19 +606,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>오늘만 I LOVE YOU</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -626,19 +626,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>DRIP</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>BABYMONSTER</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -646,19 +646,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>POWER</t>
+          <t>나는 반딧불</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>황가람</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -678,7 +678,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -686,19 +686,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>내게 사랑이 뭐냐고 물어본다면</t>
+          <t>HAPPY</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -706,19 +706,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DRIP</t>
+          <t>Die With A Smile</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>BABYMONSTER</t>
+          <t>Lady GaGa(레이디 가가)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UP (KARINA Solo)</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -738,7 +738,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -746,19 +746,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -766,19 +766,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>내 이름 맑음</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -786,19 +786,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>한 페이지가 될 수 있게</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -806,19 +806,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>밤양갱</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>비비(BIBI)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -826,7 +826,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>UP (KARINA Solo)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -846,19 +846,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>고민중독</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -866,19 +866,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>POWER</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -886,19 +886,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>슬픈 초대장</t>
+          <t>Igloo</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>순순희(지환)</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -906,19 +906,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>WAY 4 LUV</t>
+          <t>Welcome to the Show</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -926,19 +926,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>Hug (포옹)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -946,19 +946,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>number one girl</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>로제(ROSÉ)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -966,19 +966,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>내게 사랑이 뭐냐고 물어본다면</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -986,19 +986,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>온기</t>
+          <t>소나기</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>이클립스 (ECLIPSE)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1006,19 +1006,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pump Up The Volume!</t>
+          <t>Supernatural</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1026,19 +1026,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>천상연</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>이창섭</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1046,19 +1046,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>Love wins all</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>아이유(IU)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Love wins all</t>
+          <t>How Sweet</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1086,19 +1086,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Armageddon</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1106,19 +1106,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>모래 알갱이</t>
+          <t>I AM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1126,19 +1126,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>How Sweet</t>
+          <t>녹아내려요</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1146,19 +1146,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>에피소드</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1166,19 +1166,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>다시 만날 수 있을까</t>
+          <t>우리의 다정한 계절 속에 (Season of Memories)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>여자친구(GFRIEND)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1186,19 +1186,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>너의 모든 순간</t>
+          <t>예뻤어</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1218,7 +1218,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1226,19 +1226,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Supersonic</t>
+          <t>Ditto</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>프로미스나인</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1246,19 +1246,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>이제 나만 믿어요</t>
+          <t>Small girl (feat. 도경수(D.O.))</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>이영지</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1266,19 +1266,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>우리 영화</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>AKMU(악뮤)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1286,19 +1286,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1306,19 +1306,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Do or Die</t>
+          <t>Supersonic</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>프로미스나인</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1326,19 +1326,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>첫 만남은 계획대로 되지 않아</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>From</t>
+          <t>Love me or Leave me</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1366,19 +1366,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>비의 랩소디</t>
+          <t>Sticky</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1386,19 +1386,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>무지개</t>
+          <t>슬픈 초대장</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>순순희 (지환)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1406,19 +1406,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>미안해 미워해 사랑해</t>
+          <t>Letter To Myself</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Crush</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1426,19 +1426,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Polaroid</t>
+          <t>Attention</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1446,19 +1446,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Small girl (feat. 도경수(D.O.))</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>이영지</t>
+          <t>폴킴(Paul Kim)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1466,19 +1466,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>London Boy</t>
+          <t>너의 모든 순간</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>성시경</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1498,7 +1498,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1506,19 +1506,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>헤어지자 말해요</t>
+          <t>청바지</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t>부석순(SEVENTEEN)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1526,19 +1526,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Watch Me Woo!</t>
+          <t>To. X</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1546,19 +1546,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>잔나비</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1566,19 +1566,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Igloo</t>
+          <t>숲</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>최유리</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1586,19 +1586,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>number one girl</t>
+          <t>Cherish (My Love)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1606,19 +1606,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>사건의 지평선</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>윤하(Younha/ユンナ)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>인생찬가</t>
+          <t>아직 거기 살아</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1646,19 +1646,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Armageddon</t>
+          <t>비의 랩소디</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>임재현</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1666,19 +1666,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ditto</t>
+          <t>청춘만화</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1686,19 +1686,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>인사</t>
+          <t>미안해 미워해 사랑해</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>범진</t>
+          <t>Crush</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1706,19 +1706,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>청바지</t>
+          <t>인사</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>부석순 (SEVENTEEN)</t>
+          <t>범진</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1726,19 +1726,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>첫 눈</t>
+          <t>Bubble Gum</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>EXO</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1746,19 +1746,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>해야 (HEYA)</t>
+          <t>SPOT! (feat. JENNIE)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>지코 (ZICO)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>클락션 (Klaxon)</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>너드커넥션(Nerd Connection)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1786,19 +1786,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Love 119</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>멜로망스(MeloMance)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1806,19 +1806,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>다정히 내 이름을 부르면</t>
+          <t>Congratulations</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>경서예지</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1826,19 +1826,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>연애편지</t>
+          <t>해야 (HEYA)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1846,19 +1846,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Hug (포옹)</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1866,19 +1866,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>살기 위해서</t>
+          <t>내가 널 지켜줄게</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>순순희</t>
+          <t>폴킴(Paul Kim)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1886,19 +1886,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>청춘만화</t>
+          <t>Strategy (feat. Megan Thee Stallion)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>TWICE (트와이스)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>To Forget</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>Yale Lee</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1926,19 +1926,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Supernatural</t>
+          <t>헤어지자 말해요</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>박재정</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1946,19 +1946,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>무제(無題) (Untitled, 2014)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1966,19 +1966,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>녹아내려요</t>
+          <t>ETA</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1986,19 +1986,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Sticky</t>
+          <t>네모네모</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>YENA (최예나)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2006,19 +2006,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>청혼하지 않을 이유를 못 찾았어</t>
+          <t>Super Shy</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2026,19 +2026,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Merry PLLIstmas</t>
+          <t>LOVE DIVE</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>무제(無題) (Untitled, 2014)</t>
+          <t>그녀가 웃었다</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2066,19 +2066,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>버추얼 아이돌</t>
+          <t>클락션 (Klaxon)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2086,19 +2086,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>Live My Life</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>멜로망스</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2106,19 +2106,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Seven (feat. Latto) - Clean Ver.</t>
+          <t>MEOW</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t>MEOVV (미야오)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2126,19 +2126,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>눈이 오잖아(Feat.헤이즈)</t>
+          <t>After LIKE</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2146,19 +2146,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>보금자리</t>
+          <t>Girls Never Die</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>tripleS (트리플에스)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2166,19 +2166,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Boom Boom Bass</t>
+          <t>Spicy</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>취중고백</t>
+          <t>drinks or coffee</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>김민석</t>
+          <t>로제(ROSÉ)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2206,19 +2206,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>To. X</t>
+          <t>내가 S면 넌 나의 N이 되어줘</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2226,19 +2226,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SPOT! (feat. JENNIE)</t>
+          <t>첫 눈</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>지코 (ZICO)</t>
+          <t>EXO</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2246,19 +2246,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>사건의 지평선</t>
+          <t>stay a little longer</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>윤하 (YOUNHA)</t>
+          <t>로제(ROSÉ)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2266,19 +2266,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Bubble Gum</t>
+          <t>Drama</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2286,19 +2286,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>사막에서 꽃을 피우듯</t>
+          <t>Gravity</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>우디 (Woody)</t>
+          <t>FIFTY FIFTY</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2306,19 +2306,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>Boom Boom Bass</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Congratulations</t>
+          <t>시작의 아이</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>마크툽(MAKTUB)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2346,19 +2346,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Cherish (My Love)</t>
+          <t>Cruel Summer</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>Taylor Swift(테일러 스위프트)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2366,19 +2366,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Dynamite</t>
+          <t>Dangerously</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>Charlie Puth(찰리 푸스)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2386,19 +2386,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>봄날</t>
+          <t>우연 (우울한 우연)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>베이비복스(Baby V.O.X)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2406,19 +2406,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>네모네모</t>
+          <t>살기 위해서</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>YENA (최예나)</t>
+          <t>순순희</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2426,19 +2426,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>파이팅 해야지 (Feat. 이영지)</t>
+          <t>청혼하지 않을 이유를 못 찾았어</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>부석순 (SEVENTEEN)</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Bugs</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2446,19 +2446,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>우리의 다정한 계절 속에 (Season of Memories)</t>
+          <t>우리가 헤어져야 했던 이유</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>여자친구 (GFRIEND)</t>
+          <t>비비(BIBI)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>HOME SWEET HOME (feat. 태양, 대성)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2486,19 +2486,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>APT.</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2506,19 +2506,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME (feat. 태양, 대성)</t>
+          <t>Whiplash</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2526,19 +2526,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>toxic till the end</t>
+          <t>REBEL HEART</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>로제(ROSÉ)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2546,19 +2546,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>나는 반딧불</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>로제(ROSÉ)</t>
+          <t>황가람</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2566,19 +2566,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>toxic till the end</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2598,7 +2598,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>너와의 모든 지금</t>
+          <t>HAPPY</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>재쓰비 (JAESSBEE)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2626,19 +2626,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>오늘만 I LOVE YOU</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2646,19 +2646,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>POWER</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2666,19 +2666,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>너와의 모든 지금</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>재쓰비 (JAESSBEE)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2698,7 +2698,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2706,19 +2706,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>내게 사랑이 뭐냐고 물어본다면</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2726,19 +2726,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>POWER</t>
+          <t>내 이름 맑음</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Welcome to the Show</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -2766,19 +2766,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>사건의 지평선</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>윤하(Younha/ユンナ)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2786,19 +2786,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>number one girl</t>
+          <t>UP (KARINA Solo)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>로제(ROSÉ)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2806,19 +2806,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Love wins all</t>
+          <t>소나기</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>아이유(IU)</t>
+          <t>이클립스 (ECLIPSE)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2826,19 +2826,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Cherish (My Love)</t>
+          <t>한 페이지가 될 수 있게</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2846,19 +2846,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Hug (포옹)</t>
+          <t>천상연</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>이창섭</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2866,19 +2866,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>To. X</t>
+          <t>슬픈 초대장</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>순순희(지환)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2906,19 +2906,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Super Shy</t>
+          <t>고민중독</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2926,19 +2926,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>UP (KARINA Solo)</t>
+          <t>예뻤어</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2946,19 +2946,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>너드커넥션(Nerd Connection)</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2966,19 +2966,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>Love wins all</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>아이유</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2986,19 +2986,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>내게 사랑이 뭐냐고 물어본다면</t>
+          <t>How Sweet</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3006,19 +3006,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Letter To Myself</t>
+          <t>첫 만남은 계획대로 되지 않아</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Supernatural</t>
+          <t>Supersonic</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>프로미스나인</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3046,19 +3046,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>How Sweet</t>
+          <t>나는 아픈 건 딱 질색이니까</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -3066,19 +3066,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>무제(無題) (Untitled, 2014)</t>
+          <t>너의 모든 순간</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>성시경</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3086,19 +3086,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Armageddon</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>너드커넥션 (Nerd Connection)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3106,19 +3106,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>Small girl (feat. 도경수(D.O.))</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>이영지</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3126,19 +3126,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -3158,7 +3158,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Bubble Gum</t>
+          <t>비의 랩소디</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>임재현</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -3186,19 +3186,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>너의 모든 순간</t>
+          <t>I AM</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -3206,19 +3206,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Small girl (feat. 도경수(D.O.))</t>
+          <t>에피소드</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>이영지</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -3226,19 +3226,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>미안해 미워해 사랑해</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>Crush</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -3246,19 +3246,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>number one girl</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>폴킴(Paul Kim)</t>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -3266,19 +3266,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>녹아내려요</t>
+          <t>Ditto</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -3286,19 +3286,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>헤어지자 말해요</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>박재정</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Supersonic</t>
+          <t>첫 눈</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>프로미스나인</t>
+          <t>EXO</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -3326,19 +3326,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>폴킴</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -3346,19 +3346,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>클락션 (Klaxon)</t>
+          <t>Igloo</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -3366,19 +3366,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>Armageddon</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -3386,19 +3386,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Ditto</t>
+          <t>살기 위해서</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>순순희</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -3406,19 +3406,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>After LIKE</t>
+          <t>인사</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>범진</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -3426,19 +3426,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>다정히 내 이름을 부르면</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Lady GaGa(레이디 가가)</t>
+          <t>경서예지</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>클락션 (Klaxon)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>AKMU(악뮤)</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -3478,7 +3478,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -3486,19 +3486,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Igloo</t>
+          <t>해야 (HEYA)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -3506,19 +3506,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>내가 널 지켜줄게</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>폴킴(Paul Kim)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -3526,19 +3526,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Boom Boom Bass</t>
+          <t>눈이 오잖아(Feat.헤이즈)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -3546,19 +3546,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>무제(無題) (Untitled, 2014)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -3566,19 +3566,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>청춘만화</t>
+          <t>Sticky</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>헤어지자 말해요</t>
+          <t>Supernatural</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -3606,19 +3606,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>LOVE DIVE</t>
+          <t>청바지</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>부석순 (SEVENTEEN)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -3626,19 +3626,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Live My Life</t>
+          <t>WAY 4 LUV</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -3646,19 +3646,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>인사</t>
+          <t>녹아내려요</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>범진</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -3666,19 +3666,19 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>나는 아픈 건 딱 질색이니까</t>
+          <t>청춘만화</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -3686,19 +3686,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Sticky</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>멜로망스</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -3706,19 +3706,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>슬픈 초대장</t>
+          <t>청혼하지 않을 이유를 못 찾았어</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>순순희 (지환)</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>To. X</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -3746,19 +3746,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Love me or Leave me</t>
+          <t>우리들의 블루스</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -3766,19 +3766,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>비의 랩소디</t>
+          <t>Hug (포옹)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -3786,19 +3786,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>청바지</t>
+          <t>SPOT! (feat. JENNIE)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>부석순(SEVENTEEN)</t>
+          <t>지코 (ZICO)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -3806,19 +3806,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Love 119</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -3826,19 +3826,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Spicy</t>
+          <t>취중고백</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>김민석</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -3846,19 +3846,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>네모네모</t>
+          <t>사건의 지평선</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>YENA (최예나)</t>
+          <t>윤하 (YOUNHA)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>해야 (HEYA)</t>
+          <t>Pump Up The Volume!</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -3886,19 +3886,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Congratulations</t>
+          <t>Bubble Gum</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -3906,19 +3906,19 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>Congratulations</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>멜로망스(MeloMance)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -3926,19 +3926,19 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>MEOW</t>
+          <t>Drama</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>MEOVV (미야오)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -3946,19 +3946,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>첫 눈</t>
+          <t>Seven (feat. Latto) - Clean Ver.</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>EXO</t>
+          <t>정국</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -3966,19 +3966,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>아직 거기 살아</t>
+          <t>사막에서 꽃을 피우듯</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>우디 (Woody)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -3986,19 +3986,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>청혼하지 않을 이유를 못 찾았어</t>
+          <t>Boom Boom Bass</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SPOT! (feat. JENNIE)</t>
+          <t>Cherish (My Love)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>지코 (ZICO)</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -4026,19 +4026,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ETA</t>
+          <t>Die With A Smile</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>Lady Gaga</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -4046,19 +4046,19 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>밤양갱</t>
+          <t>네모네모</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>비비(BIBI)</t>
+          <t>YENA (최예나)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -4066,19 +4066,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>우리의 다정한 계절 속에 (Season of Memories)</t>
+          <t>온기</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>여자친구(GFRIEND)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -4086,19 +4086,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>모래 알갱이</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -4106,19 +4106,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>우리 영화</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -4126,19 +4126,19 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Strategy (feat. Megan Thee Stallion)</t>
+          <t>봄여름가을겨울 (Still Life)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>TWICE (트와이스)</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>미안해 미워해 사랑해</t>
+          <t>다시 만날 수 있을까</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Crush</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -4166,19 +4166,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Girls Never Die</t>
+          <t>봄날</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>tripleS (트리플에스)</t>
+          <t>방탄소년단</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -4186,19 +4186,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>숲</t>
+          <t>Dynamite</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>최유리</t>
+          <t>방탄소년단</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -4206,19 +4206,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Gravity</t>
+          <t>이제 나만 믿어요</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>FIFTY FIFTY</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -4226,19 +4226,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Dangerously</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Charlie Puth(찰리 푸스)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -4246,19 +4246,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>살기 위해서</t>
+          <t>From</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>순순희</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -4266,19 +4266,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>내가 S면 넌 나의 N이 되어줘</t>
+          <t>파이팅 해야지 (Feat. 이영지)</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>부석순 (SEVENTEEN)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>drinks or coffee</t>
+          <t>무지개</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>로제(ROSÉ)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -4306,19 +4306,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Cruel Summer</t>
+          <t>우리의 다정한 계절 속에 (Season of Memories)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Taylor Swift(테일러 스위프트)</t>
+          <t>여자친구 (GFRIEND)</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -4326,19 +4326,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>그걸 사랑이라고 말하지마</t>
+          <t>Do or Die</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>다비치</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -4346,19 +4346,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>그녀가 웃었다</t>
+          <t>London Boy</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -4366,19 +4366,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>stay a little longer</t>
+          <t>인생찬가</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>로제(ROSÉ)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -4386,19 +4386,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>우연 (우울한 우연)</t>
+          <t>눈사람</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>베이비복스(Baby V.O.X)</t>
+          <t>정승환</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -4406,19 +4406,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>시작의 아이</t>
+          <t>가까운 듯 먼 그대여</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>마크툽(MAKTUB)</t>
+          <t>카더가든</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Take Care</t>
+          <t>Watch Me Woo!</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>다이나믹 듀오</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Bugs</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -4446,12 +4446,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>밤에 내린 눈 (Snowfall at Night)</t>
+          <t>Polaroid</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>도경수(D.O.)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4466,12 +4466,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME (Feat. 태양 &amp; 대성)</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4486,12 +4486,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>우리들의 블루스</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4506,12 +4506,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ) &amp; Bruno Mars</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>이제 나만 믿어요</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4546,12 +4546,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>모래 알갱이</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4566,12 +4566,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>온기</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4586,12 +4586,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>toxic till the end</t>
+          <t>다시 만날 수 있을까</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4606,12 +4606,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Drowning</t>
+          <t>무지개</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>WOODZ</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4626,12 +4626,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>내게 사랑이 뭐냐고 물어본다면</t>
+          <t>Polaroid</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4646,12 +4646,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>너와의 모든 지금</t>
+          <t>Do or Die</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>재쓰비 (JAESSBEE)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4666,12 +4666,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>POWER</t>
+          <t>London Boy</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4686,12 +4686,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>인생찬가</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4706,12 +4706,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>연애편지</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4726,12 +4726,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>HOME SWEET HOME (Feat. 태양 &amp; 대성)</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -4746,12 +4746,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>보금자리</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4766,12 +4766,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>나는 반딧불</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>황가람</t>
         </is>
       </c>
     </row>
@@ -4786,12 +4786,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>REBEL HEART</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -4806,12 +4806,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>슬픈 초대장</t>
+          <t>Whiplash</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>순순희 (지환)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -4826,12 +4826,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>Drowning</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>WOODZ</t>
         </is>
       </c>
     </row>
@@ -4846,12 +4846,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>UP (KARINA Solo)</t>
+          <t>APT.</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>로제 (ROSÉ) &amp; Bruno Mars</t>
         </is>
       </c>
     </row>
@@ -4866,12 +4866,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>toxic till the end</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -4886,12 +4886,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>HAPPY</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -4906,12 +4906,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>나는 아픈 건 딱 질색이니까</t>
+          <t>내게 사랑이 뭐냐고 물어본다면</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -4926,12 +4926,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>DRIP</t>
+          <t>오늘만 I LOVE YOU</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>BABYMONSTER</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
     </row>
@@ -4946,12 +4946,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>POWER</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -4966,12 +4966,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Love wins all</t>
+          <t>슬픈 초대장</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>순순희 (지환)</t>
         </is>
       </c>
     </row>
@@ -4986,12 +4986,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>너와의 모든 지금</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>재쓰비 (JAESSBEE)</t>
         </is>
       </c>
     </row>
@@ -5006,12 +5006,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>비의 랩소디</t>
+          <t>내 이름 맑음</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -5026,12 +5026,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>How Sweet</t>
+          <t>Welcome to the Show</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -5046,12 +5046,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>DRIP</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>BABYMONSTER</t>
         </is>
       </c>
     </row>
@@ -5066,12 +5066,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>소나기</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>이클립스 (ECLIPSE)</t>
         </is>
       </c>
     </row>
@@ -5086,12 +5086,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>천상연</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>이창섭</t>
         </is>
       </c>
     </row>
@@ -5106,12 +5106,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Small girl (Feat. 도경수 (D.O.))</t>
+          <t>함께 가 줄래</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>이영지</t>
+          <t>김호중</t>
         </is>
       </c>
     </row>
@@ -5126,12 +5126,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>봄여름가을겨울 (Still Life)</t>
+          <t>쏜살</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>BIGBANG (빅뱅)</t>
+          <t>김호중</t>
         </is>
       </c>
     </row>
@@ -5146,12 +5146,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>헤어지자 말해요</t>
+          <t>한 페이지가 될 수 있게</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -5166,12 +5166,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>해야 (HEYA)</t>
+          <t>바람이 부는 날엔</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>김호중</t>
         </is>
       </c>
     </row>
@@ -5186,12 +5186,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>청춘만화</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -5206,12 +5206,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>클락션 (Klaxon)</t>
+          <t>빛이 나는 사람</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>김호중</t>
         </is>
       </c>
     </row>
@@ -5226,12 +5226,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>별 헤는 밤</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>김호중</t>
         </is>
       </c>
     </row>
@@ -5246,12 +5246,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>너의 모든 순간</t>
+          <t>봄날에</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>김호중</t>
         </is>
       </c>
     </row>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>I Don't Think That I Like Her</t>
+          <t>그대... 떠나도</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>김호중</t>
         </is>
       </c>
     </row>
@@ -5286,12 +5286,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>사건의 지평선</t>
+          <t>봄여름가을겨울 (Still Life)</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>윤하 (YOUNHA)</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
     </row>
@@ -5306,12 +5306,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Magnetic</t>
+          <t>예뻤어</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>아일릿 (ILLIT)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -5326,12 +5326,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>다정히 내 이름을 부르면</t>
+          <t>UP (KARINA Solo)</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>경서예지 &amp; 전건호</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -5346,12 +5346,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>고민중독</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -5366,12 +5366,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Ditto</t>
+          <t>나는 아픈 건 딱 질색이니까</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -5386,12 +5386,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>이제 나만 믿어요</t>
+          <t>Love wins all</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>청혼하지 않을 이유를 못 찾았어</t>
+          <t>에피소드</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5426,12 +5426,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>SPOT! (Feat. JENNIE)</t>
+          <t>살기 위해서</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>지코 (ZICO)</t>
+          <t>순순희</t>
         </is>
       </c>
     </row>
@@ -5446,12 +5446,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>살기 위해서</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>순순희</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
@@ -5466,12 +5466,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>심 (心)</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>DK (디셈버)</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -5486,12 +5486,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>미안해 미워해 사랑해</t>
+          <t>비의 랩소디</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Crush</t>
+          <t>임재현</t>
         </is>
       </c>
     </row>
@@ -5506,12 +5506,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Igloo</t>
+          <t>Small girl (Feat. 도경수 (D.O.))</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>이영지</t>
         </is>
       </c>
     </row>
@@ -5526,12 +5526,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Armageddon</t>
+          <t>Storm</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>김보경 (NEON)</t>
         </is>
       </c>
     </row>
@@ -5546,12 +5546,12 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>Die With A Smile</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>Lady Gaga &amp; Bruno Mars</t>
         </is>
       </c>
     </row>
@@ -5566,12 +5566,12 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>사막에서 꽃을 피우듯</t>
+          <t>첫 만남은 계획대로 되지 않아</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>우디 (Woody)</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
@@ -5586,12 +5586,12 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>How Sweet</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -5606,12 +5606,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>청춘만화</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>멜로망스 (MeloMance)</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -5626,12 +5626,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Supernatural</t>
+          <t>너의 모든 순간</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>성시경</t>
         </is>
       </c>
     </row>
@@ -5646,12 +5646,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Older</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Sasha Alex Sloan</t>
+          <t>잔나비</t>
         </is>
       </c>
     </row>
@@ -5666,12 +5666,12 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>잘 지내자, 우리 (여름날 우리 X 로이킴)</t>
+          <t>무제(無題) (Untitled, 2014)</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -5686,12 +5686,12 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>다시 만날 수 있을까</t>
+          <t>Magnetic</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>아일릿 (ILLIT)</t>
         </is>
       </c>
     </row>
@@ -5706,12 +5706,12 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>Older</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>Sasha Alex Sloan</t>
         </is>
       </c>
     </row>
@@ -5726,12 +5726,12 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Cruel Summer</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>너드커넥션 (Nerd Connection)</t>
         </is>
       </c>
     </row>
@@ -5746,12 +5746,12 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>To. X</t>
+          <t>헤어지자 말해요</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>박재정</t>
         </is>
       </c>
     </row>
@@ -5766,12 +5766,12 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>number one girl</t>
+          <t>붉은 노을</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
     </row>
@@ -5786,12 +5786,12 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>녹아내려요</t>
+          <t>잘 지내자, 우리 (여름날 우리 X 로이킴)</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -5806,12 +5806,12 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>Igloo</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
@@ -5826,12 +5826,12 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>모래 알갱이</t>
+          <t>뱅뱅뱅 (BANG BANG BANG)</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
     </row>
@@ -5846,12 +5846,12 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>밤양갱</t>
+          <t>해야 (HEYA)</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>비비 (BIBI)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -5866,12 +5866,12 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>무지개</t>
+          <t>다정히 내 이름을 부르면</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>경서예지 &amp; 전건호</t>
         </is>
       </c>
     </row>
@@ -5886,12 +5886,12 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Dangerously</t>
+          <t>광대</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>박서진</t>
         </is>
       </c>
     </row>
@@ -5906,12 +5906,12 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>클락션 (Klaxon)</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -5926,12 +5926,12 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>인사</t>
+          <t>독백</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>범진</t>
+          <t>정동원 (Jeong Dong Won)</t>
         </is>
       </c>
     </row>
@@ -5946,12 +5946,12 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>온기</t>
+          <t>I AM</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -5966,12 +5966,12 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>물론</t>
+          <t>Armageddon</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>허각</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -5986,12 +5986,12 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Supersonic</t>
+          <t>청혼하지 않을 이유를 못 찾았어</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>프로미스나인</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -6006,12 +6006,12 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>어른</t>
+          <t>꽃순이를 아시나요</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Sondia</t>
+          <t>박서진</t>
         </is>
       </c>
     </row>
@@ -6026,12 +6026,12 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>그대가 내 안에 박혔다 (그내박)</t>
+          <t>미안해 미워해 사랑해</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>순순희 (기태)</t>
+          <t>Crush</t>
         </is>
       </c>
     </row>
@@ -6046,12 +6046,12 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Stay</t>
+          <t>심 (心)</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>The Kid LAROI &amp; Justin Bieber</t>
+          <t>DK (디셈버)</t>
         </is>
       </c>
     </row>
@@ -6066,12 +6066,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>숲</t>
+          <t>지나야</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>최유리</t>
+          <t>박서진</t>
         </is>
       </c>
     </row>
@@ -6086,12 +6086,12 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Congratulations</t>
+          <t>Supersonic</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>프로미스나인</t>
         </is>
       </c>
     </row>
@@ -6106,12 +6106,12 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>청바지</t>
+          <t>고리</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>부석순 (SEVENTEEN)</t>
+          <t>정동원 (Jeong Dong Won)</t>
         </is>
       </c>
     </row>
@@ -6126,12 +6126,12 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>When I Get Old</t>
+          <t>사건의 지평선</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Christopher &amp; 청하</t>
+          <t>윤하 (YOUNHA)</t>
         </is>
       </c>
     </row>
@@ -6146,12 +6146,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>벌써 일년</t>
+          <t>청바지</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>브라운 아이즈</t>
+          <t>부석순 (SEVENTEEN)</t>
         </is>
       </c>
     </row>
@@ -6166,12 +6166,12 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>희재</t>
+          <t>잘가요 내사랑</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>정동원 (Jeong Dong Won)</t>
         </is>
       </c>
     </row>
@@ -6186,12 +6186,12 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>London Boy</t>
+          <t>Cruel Summer</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>Taylor Swift</t>
         </is>
       </c>
     </row>
@@ -6206,12 +6206,12 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>참 다행이야</t>
+          <t>헛살았네</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Spapa</t>
+          <t>박서진</t>
         </is>
       </c>
     </row>
@@ -6226,12 +6226,12 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Do or Die</t>
+          <t>꿀팁</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>박서진</t>
         </is>
       </c>
     </row>
@@ -6246,12 +6246,12 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>만약에</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Anne-Marie</t>
+          <t>정동원 (Jeong Dong Won)</t>
         </is>
       </c>
     </row>
@@ -6266,12 +6266,12 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>뱅뱅뱅 (BANG BANG BANG)</t>
+          <t>To. X</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>BIGBANG (빅뱅)</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
     </row>
@@ -6286,12 +6286,12 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Take Care</t>
+          <t>I Don't Think That I Like Her</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>다이나믹 듀오 &amp; 거미 (GUMMY)</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
     </row>
@@ -6306,12 +6306,12 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>가까운 듯 먼 그대여</t>
+          <t>여백</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>카더가든</t>
+          <t>정동원 (Jeong Dong Won)</t>
         </is>
       </c>
     </row>
@@ -6326,12 +6326,12 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>내 삶의 반</t>
+          <t>Supernatural</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -6346,12 +6346,12 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>무제(無題) (Untitled, 2014)</t>
+          <t>흥해라</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>박서진</t>
         </is>
       </c>
     </row>
@@ -6366,12 +6366,12 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Polaroid</t>
+          <t>꿀팁 (살림남 Ver.)</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>박서진</t>
         </is>
       </c>
     </row>
@@ -6386,12 +6386,12 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>시작의 아이</t>
+          <t>공주에서</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>마크툽 (Maktub)</t>
+          <t>박서진</t>
         </is>
       </c>
     </row>
@@ -6406,12 +6406,12 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>보금자리</t>
+          <t>별아 별아</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>박서진</t>
         </is>
       </c>
     </row>
@@ -6426,12 +6426,12 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>인생찬가</t>
+          <t>붉은 입술</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>박서진</t>
         </is>
       </c>
     </row>
@@ -6446,12 +6446,12 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>취중고백</t>
+          <t>춘몽</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>김민석</t>
+          <t>박서진</t>
         </is>
       </c>
     </row>

--- a/과제/MP4/MP4.xlsx
+++ b/과제/MP4/MP4.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UP N DOWN</t>
+          <t>REBEL HEART</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>은혁 (EUNHYUK)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -486,12 +486,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>Whiplash</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -506,12 +506,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>toxic till the end</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>로제(ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>toxic till the end</t>
+          <t>HOME SWEET HOME (feat. 태양, 대성)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>로제(ROSÉ)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Drowning</t>
+          <t>APT.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>WOODZ</t>
+          <t>로제(ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -566,12 +566,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>Drowning</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>로제(ROSÉ)</t>
+          <t>WOODZ</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME (feat. 태양, 대성)</t>
+          <t>너와의 모든 지금</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>재쓰비 (JAESSBEE)</t>
         </is>
       </c>
     </row>
@@ -606,12 +606,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>나는 반딧불</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>황가람</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>오늘만 I LOVE YOU</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>너와의 모든 지금</t>
+          <t>POWER</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>재쓰비 (JAESSBEE)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>HAPPY</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lady GaGa(레이디 가가)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>내 이름 맑음</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>number one girl</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>로제(ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -806,12 +806,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>밤양갱</t>
+          <t>Supersonic</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>비비(BIBI)</t>
+          <t>프로미스나인</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>UP (KARINA Solo)</t>
+          <t>Welcome to the Show</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>UP (KARINA Solo)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>POWER</t>
+          <t>에피소드</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Igloo</t>
+          <t>How Sweet</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>Die With A Smile</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>Lady GaGa(레이디 가가)</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Hug (포옹)</t>
+          <t>Love me or Leave me</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>number one girl</t>
+          <t>I AM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>로제(ROSÉ)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -966,12 +966,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>내게 사랑이 뭐냐고 물어본다면</t>
+          <t>Love wins all</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>아이유(IU)</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>Igloo</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Supernatural</t>
+          <t>우리의 다정한 계절 속에 (Season of Memories)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>여자친구(GFRIEND)</t>
         </is>
       </c>
     </row>
@@ -1026,12 +1026,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>Supernatural</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Love wins all</t>
+          <t>Small girl (feat. 도경수(D.O.))</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>아이유(IU)</t>
+          <t>이영지</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>How Sweet</t>
+          <t>첫 만남은 계획대로 되지 않아</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Armageddon</t>
+          <t>나는 아픈 건 딱 질색이니까</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>소나기</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>이클립스 (ECLIPSE)</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>녹아내려요</t>
+          <t>내게 사랑이 뭐냐고 물어본다면</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1146,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>고민중독</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>우리의 다정한 계절 속에 (Season of Memories)</t>
+          <t>청바지</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>여자친구(GFRIEND)</t>
+          <t>부석순(SEVENTEEN)</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>Armageddon</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>나는 아픈 건 딱 질색이니까</t>
+          <t>천상연</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>이창섭</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ditto</t>
+          <t>밤양갱</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>비비(BIBI)</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Small girl (feat. 도경수(D.O.))</t>
+          <t>Hug (포옹)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>이영지</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>Ditto</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1306,12 +1306,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Supersonic</t>
+          <t>한 페이지가 될 수 있게</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>프로미스나인</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1326,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>Letter To Myself</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Love me or Leave me</t>
+          <t>슬픈 초대장</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>순순희 (지환)</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sticky</t>
+          <t>내가 널 지켜줄게</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>폴킴(Paul Kim)</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>슬픈 초대장</t>
+          <t>녹아내려요</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>순순희 (지환)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Letter To Myself</t>
+          <t>예뻤어</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1426,12 +1426,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>너드커넥션(Nerd Connection)</t>
         </is>
       </c>
     </row>
@@ -1446,12 +1446,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>ETA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>폴킴(Paul Kim)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1466,12 +1466,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>너의 모든 순간</t>
+          <t>청춘만화</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1486,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Magnetic</t>
+          <t>Bubble Gum</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1506,12 +1506,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>청바지</t>
+          <t>Magnetic</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>부석순(SEVENTEEN)</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
     </row>
@@ -1526,12 +1526,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>To. X</t>
+          <t>무제(無題) (Untitled, 2014)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>비의 랩소디</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>임재현</t>
         </is>
       </c>
     </row>
@@ -1566,12 +1566,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>숲</t>
+          <t>To. X</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>최유리</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1586,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cherish (My Love)</t>
+          <t>Girls Never Die</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>tripleS (트리플에스)</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>사건의 지평선</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>윤하(Younha/ユンナ)</t>
+          <t>폴킴(Paul Kim)</t>
         </is>
       </c>
     </row>
@@ -1626,12 +1626,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>아직 거기 살아</t>
+          <t>Cherish (My Love)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>비의 랩소디</t>
+          <t>해야 (HEYA)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -1666,12 +1666,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>청춘만화</t>
+          <t>너의 모든 순간</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>성시경</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>미안해 미워해 사랑해</t>
+          <t>After LIKE</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Crush</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -1706,12 +1706,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>인사</t>
+          <t>SPOT! (feat. JENNIE)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>범진</t>
+          <t>지코 (ZICO)</t>
         </is>
       </c>
     </row>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Bubble Gum</t>
+          <t>Sticky</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SPOT! (feat. JENNIE)</t>
+          <t>Attention</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>지코 (ZICO)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>헤어지자 말해요</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>너드커넥션(Nerd Connection)</t>
+          <t>박재정</t>
         </is>
       </c>
     </row>
@@ -1786,12 +1786,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>인사</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>멜로망스(MeloMance)</t>
+          <t>범진</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1806,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Congratulations</t>
+          <t>drinks or coffee</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>로제(ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -1826,12 +1826,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>해야 (HEYA)</t>
+          <t>Live My Life</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -1846,12 +1846,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>사건의 지평선</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>윤하(Younha/ユンナ)</t>
         </is>
       </c>
     </row>
@@ -1866,12 +1866,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>내가 널 지켜줄게</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>폴킴(Paul Kim)</t>
+          <t>잔나비</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Strategy (feat. Megan Thee Stallion)</t>
+          <t>미안해 미워해 사랑해</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>TWICE (트와이스)</t>
+          <t>Crush</t>
         </is>
       </c>
     </row>
@@ -1906,12 +1906,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>To Forget</t>
+          <t>Congratulations</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Yale Lee</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1926,12 +1926,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>헤어지자 말해요</t>
+          <t>클락션 (Klaxon)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -1946,12 +1946,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>무제(無題) (Untitled, 2014)</t>
+          <t>숲</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>최유리</t>
         </is>
       </c>
     </row>
@@ -1966,12 +1966,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ETA</t>
+          <t>첫 눈</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>EXO</t>
         </is>
       </c>
     </row>
@@ -2006,12 +2006,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Super Shy</t>
+          <t>살기 위해서</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>순순희</t>
         </is>
       </c>
     </row>
@@ -2026,12 +2026,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>LOVE DIVE</t>
+          <t>청혼하지 않을 이유를 못 찾았어</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -2046,12 +2046,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>그녀가 웃었다</t>
+          <t>내가 S면 넌 나의 N이 되어줘</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
@@ -2066,12 +2066,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>클락션 (Klaxon)</t>
+          <t>Super Shy</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Live My Life</t>
+          <t>Boom Boom Bass</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
@@ -2106,12 +2106,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MEOW</t>
+          <t>Drama</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MEOVV (미야오)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -2126,12 +2126,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>After LIKE</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>멜로망스(MeloMance)</t>
         </is>
       </c>
     </row>
@@ -2146,12 +2146,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Girls Never Die</t>
+          <t>LOVE DIVE</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>tripleS (트리플에스)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -2186,12 +2186,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>drinks or coffee</t>
+          <t>우연 (우울한 우연)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>로제(ROSÉ)</t>
+          <t>베이비복스(Baby V.O.X)</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>내가 S면 넌 나의 N이 되어줘</t>
+          <t>Storm</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>김보경 (NEON)</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>첫 눈</t>
+          <t>그녀가 웃었다</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>EXO</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -2246,12 +2246,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>stay a little longer</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>로제(ROSÉ)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -2266,12 +2266,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>Dangerously</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>Charlie Puth(찰리 푸스)</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2286,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Gravity</t>
+          <t>Strategy (feat. Megan Thee Stallion)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>FIFTY FIFTY</t>
+          <t>TWICE (트와이스)</t>
         </is>
       </c>
     </row>
@@ -2306,12 +2306,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Boom Boom Bass</t>
+          <t>MEOW</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>MEOVV (미야오)</t>
         </is>
       </c>
     </row>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>시작의 아이</t>
+          <t>Cruel Summer</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>마크툽(MAKTUB)</t>
+          <t>Taylor Swift(테일러 스위프트)</t>
         </is>
       </c>
     </row>
@@ -2346,12 +2346,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Cruel Summer</t>
+          <t>그걸 사랑이라고 말하지마</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Taylor Swift(테일러 스위프트)</t>
+          <t>다비치</t>
         </is>
       </c>
     </row>
@@ -2366,12 +2366,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Dangerously</t>
+          <t>stay a little longer</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Charlie Puth(찰리 푸스)</t>
+          <t>로제(ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>우연 (우울한 우연)</t>
+          <t>Gravity</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>베이비복스(Baby V.O.X)</t>
+          <t>FIFTY FIFTY</t>
         </is>
       </c>
     </row>
@@ -2406,12 +2406,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>살기 위해서</t>
+          <t>시작의 아이</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>순순희</t>
+          <t>마크툽(MAKTUB)</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>청혼하지 않을 이유를 못 찾았어</t>
+          <t>아직 거기 살아</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -2446,12 +2446,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>우리가 헤어져야 했던 이유</t>
+          <t>Older</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>비비(BIBI)</t>
+          <t>Sasha Alex Sloan</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>REBEL HEART</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -2526,12 +2526,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>APT.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -2606,12 +2606,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>오늘만 I LOVE YOU</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
     </row>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>POWER</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -2646,12 +2646,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>POWER</t>
+          <t>HAPPY</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -2726,12 +2726,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>Welcome to the Show</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -2746,12 +2746,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>내 이름 맑음</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -2766,12 +2766,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -2826,12 +2826,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>소나기</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>이클립스 (ECLIPSE)</t>
         </is>
       </c>
     </row>
@@ -2846,12 +2846,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>한 페이지가 될 수 있게</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>슬픈 초대장</t>
+          <t>천상연</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>순순희(지환)</t>
+          <t>이창섭</t>
         </is>
       </c>
     </row>
@@ -2886,12 +2886,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>우리들의 블루스</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>슬픈 초대장</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>순순희(지환)</t>
         </is>
       </c>
     </row>
@@ -2926,12 +2926,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>WAY 4 LUV</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -2946,12 +2946,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -2966,12 +2966,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Love wins all</t>
+          <t>온기</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -2986,12 +2986,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>How Sweet</t>
+          <t>Pump Up The Volume!</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -3006,12 +3006,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3026,12 +3026,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Supersonic</t>
+          <t>고민중독</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>프로미스나인</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -3046,12 +3046,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>나는 아픈 건 딱 질색이니까</t>
+          <t>모래 알갱이</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3066,12 +3066,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>너의 모든 순간</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3086,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>Love wins all</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t>아이유</t>
         </is>
       </c>
     </row>
@@ -3106,12 +3106,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Small girl (feat. 도경수(D.O.))</t>
+          <t>다시 만날 수 있을까</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>이영지</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3126,12 +3126,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>예뻤어</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -3146,12 +3146,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Magnetic</t>
+          <t>How Sweet</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3166,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>비의 랩소디</t>
+          <t>우리 영화</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -3186,12 +3186,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>이제 나만 믿어요</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3206,12 +3206,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>첫 만남은 계획대로 되지 않아</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
@@ -3226,12 +3226,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>미안해 미워해 사랑해</t>
+          <t>Supersonic</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Crush</t>
+          <t>프로미스나인</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>number one girl</t>
+          <t>Do or Die</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3266,12 +3266,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Ditto</t>
+          <t>나는 아픈 건 딱 질색이니까</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3286,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>헤어지자 말해요</t>
+          <t>무지개</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3306,12 +3306,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>첫 눈</t>
+          <t>Polaroid</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>EXO</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3326,12 +3326,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>London Boy</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3346,12 +3346,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Igloo</t>
+          <t>너의 모든 순간</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>성시경</t>
         </is>
       </c>
     </row>
@@ -3366,12 +3366,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Armageddon</t>
+          <t>From</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -3386,12 +3386,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>살기 위해서</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>순순희</t>
+          <t>너드커넥션 (Nerd Connection)</t>
         </is>
       </c>
     </row>
@@ -3406,12 +3406,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>인사</t>
+          <t>인생찬가</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>범진</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3426,12 +3426,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>다정히 내 이름을 부르면</t>
+          <t>Small girl (feat. 도경수(D.O.))</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>경서예지</t>
+          <t>이영지</t>
         </is>
       </c>
     </row>
@@ -3446,12 +3446,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>클락션 (Klaxon)</t>
+          <t>I AM</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>number one girl</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>해야 (HEYA)</t>
+          <t>Watch Me Woo!</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -3506,12 +3506,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>비의 랩소디</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>임재현</t>
         </is>
       </c>
     </row>
@@ -3526,12 +3526,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>눈이 오잖아(Feat.헤이즈)</t>
+          <t>Magnetic</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
     </row>
@@ -3546,12 +3546,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>무제(無題) (Untitled, 2014)</t>
+          <t>에피소드</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -3566,12 +3566,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Sticky</t>
+          <t>미안해 미워해 사랑해</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>Crush</t>
         </is>
       </c>
     </row>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Supernatural</t>
+          <t>연애편지</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3626,12 +3626,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>WAY 4 LUV</t>
+          <t>헤어지자 말해요</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>박재정</t>
         </is>
       </c>
     </row>
@@ -3646,12 +3646,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>녹아내려요</t>
+          <t>Ditto</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -3666,12 +3666,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>청춘만화</t>
+          <t>첫 눈</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>EXO</t>
         </is>
       </c>
     </row>
@@ -3686,12 +3686,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>멜로망스</t>
+          <t>폴킴</t>
         </is>
       </c>
     </row>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>청혼하지 않을 이유를 못 찾았어</t>
+          <t>Igloo</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>To. X</t>
+          <t>Armageddon</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -3746,12 +3746,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>무제(無題) (Untitled, 2014)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Hug (포옹)</t>
+          <t>해야 (HEYA)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -3786,12 +3786,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SPOT! (feat. JENNIE)</t>
+          <t>눈이 오잖아(Feat.헤이즈)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>지코 (ZICO)</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -3806,12 +3806,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Love 119</t>
+          <t>살기 위해서</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>순순희</t>
         </is>
       </c>
     </row>
@@ -3826,12 +3826,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>취중고백</t>
+          <t>Hug (포옹)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>김민석</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
@@ -3846,12 +3846,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>사건의 지평선</t>
+          <t>Merry PLLIstmas</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>윤하 (YOUNHA)</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -3866,12 +3866,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Pump Up The Volume!</t>
+          <t>보금자리</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3886,12 +3886,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Bubble Gum</t>
+          <t>인사</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>범진</t>
         </is>
       </c>
     </row>
@@ -3906,12 +3906,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Congratulations</t>
+          <t>다정히 내 이름을 부르면</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>경서예지</t>
         </is>
       </c>
     </row>
@@ -3926,12 +3926,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>클락션 (Klaxon)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -3946,12 +3946,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Seven (feat. Latto) - Clean Ver.</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t>잔나비</t>
         </is>
       </c>
     </row>
@@ -3966,12 +3966,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>사막에서 꽃을 피우듯</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>우디 (Woody)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -3986,12 +3986,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Boom Boom Bass</t>
+          <t>버추얼 아이돌</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -4006,12 +4006,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Cherish (My Love)</t>
+          <t>청춘만화</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -4026,12 +4026,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>Sticky</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Lady Gaga</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
@@ -4046,12 +4046,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>네모네모</t>
+          <t>Seven (feat. Latto) - Clean Ver.</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>YENA (최예나)</t>
+          <t>정국</t>
         </is>
       </c>
     </row>
@@ -4066,12 +4066,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>온기</t>
+          <t>녹아내려요</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -4086,12 +4086,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>모래 알갱이</t>
+          <t>Supernatural</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -4106,12 +4106,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>우리 영화</t>
+          <t>Love 119</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
@@ -4126,12 +4126,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>봄여름가을겨울 (Still Life)</t>
+          <t>청혼하지 않을 이유를 못 찾았어</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>BIGBANG (빅뱅)</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -4146,12 +4146,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>다시 만날 수 있을까</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>멜로망스</t>
         </is>
       </c>
     </row>
@@ -4166,12 +4166,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>봄날</t>
+          <t>Boom Boom Bass</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
@@ -4186,12 +4186,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Dynamite</t>
+          <t>To. X</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
     </row>
@@ -4206,12 +4206,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>이제 나만 믿어요</t>
+          <t>취중고백</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>김민석</t>
         </is>
       </c>
     </row>
@@ -4226,12 +4226,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>SPOT! (feat. JENNIE)</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>지코 (ZICO)</t>
         </is>
       </c>
     </row>
@@ -4246,12 +4246,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>From</t>
+          <t>사건의 지평선</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>윤하 (YOUNHA)</t>
         </is>
       </c>
     </row>
@@ -4266,12 +4266,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>파이팅 해야지 (Feat. 이영지)</t>
+          <t>Bubble Gum</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>부석순 (SEVENTEEN)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -4286,12 +4286,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>무지개</t>
+          <t>사막에서 꽃을 피우듯</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>우디 (Woody)</t>
         </is>
       </c>
     </row>
@@ -4306,12 +4306,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>우리의 다정한 계절 속에 (Season of Memories)</t>
+          <t>Drama</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>여자친구 (GFRIEND)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -4326,12 +4326,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Do or Die</t>
+          <t>Dynamite</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>방탄소년단</t>
         </is>
       </c>
     </row>
@@ -4346,12 +4346,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>London Boy</t>
+          <t>Cherish (My Love)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>인생찬가</t>
+          <t>봄날</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>방탄소년단</t>
         </is>
       </c>
     </row>
@@ -4386,12 +4386,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>눈사람</t>
+          <t>Congratulations</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>정승환</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -4406,12 +4406,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>가까운 듯 먼 그대여</t>
+          <t>Die With A Smile</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>카더가든</t>
+          <t>Lady Gaga</t>
         </is>
       </c>
     </row>
@@ -4426,12 +4426,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Watch Me Woo!</t>
+          <t>네모네모</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>YENA (최예나)</t>
         </is>
       </c>
     </row>
@@ -4446,12 +4446,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Polaroid</t>
+          <t>우리의 다정한 계절 속에 (Season of Memories)</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>여자친구 (GFRIEND)</t>
         </is>
       </c>
     </row>
@@ -4466,12 +4466,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>HOME SWEET HOME (Feat. 태양 &amp; 대성)</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -4486,12 +4486,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>APT.</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>로제 (ROSÉ) &amp; Bruno Mars</t>
         </is>
       </c>
     </row>
@@ -4506,12 +4506,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>REBEL HEART</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>이제 나만 믿어요</t>
+          <t>Whiplash</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -4546,12 +4546,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>모래 알갱이</t>
+          <t>나는 반딧불</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>황가람</t>
         </is>
       </c>
     </row>
@@ -4566,12 +4566,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>온기</t>
+          <t>HAPPY</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -4586,12 +4586,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>다시 만날 수 있을까</t>
+          <t>toxic till the end</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -4606,12 +4606,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>무지개</t>
+          <t>Drowning</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>WOODZ</t>
         </is>
       </c>
     </row>
@@ -4626,12 +4626,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Polaroid</t>
+          <t>너와의 모든 지금</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>재쓰비 (JAESSBEE)</t>
         </is>
       </c>
     </row>
@@ -4646,12 +4646,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Do or Die</t>
+          <t>내 이름 맑음</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -4666,12 +4666,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>London Boy</t>
+          <t>POWER</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -4686,12 +4686,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>인생찬가</t>
+          <t>내게 사랑이 뭐냐고 물어본다면</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -4706,12 +4706,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>연애편지</t>
+          <t>Welcome to the Show</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -4726,12 +4726,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME (Feat. 태양 &amp; 대성)</t>
+          <t>한 페이지가 될 수 있게</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -4746,12 +4746,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>보금자리</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -4766,12 +4766,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>소나기</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>이클립스 (ECLIPSE)</t>
         </is>
       </c>
     </row>
@@ -4786,12 +4786,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>고민중독</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -4806,12 +4806,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>슬픈 초대장</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>순순희 (지환)</t>
         </is>
       </c>
     </row>
@@ -4826,12 +4826,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Drowning</t>
+          <t>DRIP</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>WOODZ</t>
+          <t>BABYMONSTER</t>
         </is>
       </c>
     </row>
@@ -4846,12 +4846,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>UP (KARINA Solo)</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ) &amp; Bruno Mars</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -4866,12 +4866,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>toxic till the end</t>
+          <t>예뻤어</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -4886,12 +4886,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>천상연</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>이창섭</t>
         </is>
       </c>
     </row>
@@ -4906,12 +4906,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>내게 사랑이 뭐냐고 물어본다면</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
@@ -4926,12 +4926,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>나는 아픈 건 딱 질색이니까</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -4946,12 +4946,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>POWER</t>
+          <t>에피소드</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -4966,12 +4966,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>슬픈 초대장</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>순순희 (지환)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4986,12 +4986,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>너와의 모든 지금</t>
+          <t>첫 만남은 계획대로 되지 않아</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>재쓰비 (JAESSBEE)</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
@@ -5006,12 +5006,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>How Sweet</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -5026,12 +5026,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>Love wins all</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
     </row>
@@ -5046,12 +5046,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>DRIP</t>
+          <t>오늘만 I LOVE YOU</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>BABYMONSTER</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
     </row>
@@ -5066,12 +5066,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>비의 랩소디</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>임재현</t>
         </is>
       </c>
     </row>
@@ -5086,12 +5086,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>Small girl (Feat. 도경수 (D.O.))</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>이영지</t>
         </is>
       </c>
     </row>
@@ -5106,12 +5106,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>함께 가 줄래</t>
+          <t>봄여름가을겨울 (Still Life)</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
     </row>
@@ -5126,12 +5126,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>쏜살</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -5146,12 +5146,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>우리들의 블루스</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5166,12 +5166,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>바람이 부는 날엔</t>
+          <t>해야 (HEYA)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -5186,12 +5186,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>모래 알갱이</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5206,12 +5206,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>빛이 나는 사람</t>
+          <t>클락션 (Klaxon)</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -5226,12 +5226,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>별 헤는 밤</t>
+          <t>헤어지자 말해요</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>박재정</t>
         </is>
       </c>
     </row>
@@ -5246,12 +5246,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>봄날에</t>
+          <t>청춘만화</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>그대... 떠나도</t>
+          <t>Magnetic</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>아일릿 (ILLIT)</t>
         </is>
       </c>
     </row>
@@ -5286,12 +5286,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>봄여름가을겨울 (Still Life)</t>
+          <t>온기</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>BIGBANG (빅뱅)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5306,12 +5306,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5326,12 +5326,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>UP (KARINA Solo)</t>
+          <t>I AM</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -5346,12 +5346,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>이제 나만 믿어요</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5366,12 +5366,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>나는 아픈 건 딱 질색이니까</t>
+          <t>너의 모든 순간</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>성시경</t>
         </is>
       </c>
     </row>
@@ -5386,12 +5386,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Love wins all</t>
+          <t>Polaroid</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5406,12 +5406,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>Do or Die</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5426,12 +5426,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>살기 위해서</t>
+          <t>사건의 지평선</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>순순희</t>
+          <t>윤하 (YOUNHA)</t>
         </is>
       </c>
     </row>
@@ -5446,12 +5446,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>다정히 내 이름을 부르면</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>경서예지 &amp; 전건호</t>
         </is>
       </c>
     </row>
@@ -5466,12 +5466,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>너드커넥션 (Nerd Connection)</t>
         </is>
       </c>
     </row>
@@ -5486,12 +5486,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>비의 랩소디</t>
+          <t>SPOT! (Feat. JENNIE)</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>지코 (ZICO)</t>
         </is>
       </c>
     </row>
@@ -5506,12 +5506,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Small girl (Feat. 도경수 (D.O.))</t>
+          <t>다시 만날 수 있을까</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>이영지</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5526,12 +5526,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Storm</t>
+          <t>I Don't Think That I Like Her</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>김보경 (NEON)</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
     </row>
@@ -5546,12 +5546,12 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>청혼하지 않을 이유를 못 찾았어</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Lady Gaga &amp; Bruno Mars</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -5566,12 +5566,12 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>인생찬가</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5586,12 +5586,12 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>How Sweet</t>
+          <t>연애편지</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5606,12 +5606,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>청춘만화</t>
+          <t>심 (心)</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>DK (디셈버)</t>
         </is>
       </c>
     </row>
@@ -5626,12 +5626,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>너의 모든 순간</t>
+          <t>보금자리</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5646,12 +5646,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>살기 위해서</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>순순희</t>
         </is>
       </c>
     </row>
@@ -5666,12 +5666,12 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>무제(無題) (Untitled, 2014)</t>
+          <t>미안해 미워해 사랑해</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>Crush</t>
         </is>
       </c>
     </row>
@@ -5686,12 +5686,12 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Magnetic</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>아일릿 (ILLIT)</t>
+          <t>멜로망스 (MeloMance)</t>
         </is>
       </c>
     </row>
@@ -5706,12 +5706,12 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Older</t>
+          <t>무지개</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Sasha Alex Sloan</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5726,12 +5726,12 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>Cruel Summer</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t>Taylor Swift</t>
         </is>
       </c>
     </row>
@@ -5746,12 +5746,12 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>헤어지자 말해요</t>
+          <t>Older</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t>Sasha Alex Sloan</t>
         </is>
       </c>
     </row>
@@ -5766,12 +5766,12 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>붉은 노을</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>BIGBANG (빅뱅)</t>
+          <t>잔나비</t>
         </is>
       </c>
     </row>
@@ -5786,12 +5786,12 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>잘 지내자, 우리 (여름날 우리 X 로이킴)</t>
+          <t>Ditto</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -5806,12 +5806,12 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Igloo</t>
+          <t>number one girl</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -5826,12 +5826,12 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>뱅뱅뱅 (BANG BANG BANG)</t>
+          <t>Supernatural</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>BIGBANG (빅뱅)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -5846,12 +5846,12 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>해야 (HEYA)</t>
+          <t>잘 지내자, 우리 (여름날 우리 X 로이킴)</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -5866,12 +5866,12 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>다정히 내 이름을 부르면</t>
+          <t>Armageddon</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>경서예지 &amp; 전건호</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -5886,12 +5886,12 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>광대</t>
+          <t>Supersonic</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>박서진</t>
+          <t>프로미스나인</t>
         </is>
       </c>
     </row>
@@ -5906,12 +5906,12 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>클락션 (Klaxon)</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>폴킴</t>
         </is>
       </c>
     </row>
@@ -5926,12 +5926,12 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>독백</t>
+          <t>London Boy</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>정동원 (Jeong Dong Won)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5946,12 +5946,12 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -5966,12 +5966,12 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Armageddon</t>
+          <t>Die With A Smile</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>Lady Gaga &amp; Bruno Mars</t>
         </is>
       </c>
     </row>
@@ -5986,12 +5986,12 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>청혼하지 않을 이유를 못 찾았어</t>
+          <t>뱅뱅뱅 (BANG BANG BANG)</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
     </row>
@@ -6006,12 +6006,12 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>꽃순이를 아시나요</t>
+          <t>밤양갱</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>박서진</t>
+          <t>비비 (BIBI)</t>
         </is>
       </c>
     </row>
@@ -6026,12 +6026,12 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>미안해 미워해 사랑해</t>
+          <t>To. X</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Crush</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
     </row>
@@ -6046,12 +6046,12 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>심 (心)</t>
+          <t>Igloo</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>DK (디셈버)</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
@@ -6066,12 +6066,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>지나야</t>
+          <t>녹아내려요</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>박서진</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -6086,12 +6086,12 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Supersonic</t>
+          <t>벌써 일년</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>프로미스나인</t>
+          <t>브라운 아이즈</t>
         </is>
       </c>
     </row>
@@ -6106,12 +6106,12 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>고리</t>
+          <t>Dangerously</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>정동원 (Jeong Dong Won)</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
     </row>
@@ -6126,12 +6126,12 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>사건의 지평선</t>
+          <t>When I Get Old</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>윤하 (YOUNHA)</t>
+          <t>Christopher &amp; 청하</t>
         </is>
       </c>
     </row>
@@ -6146,12 +6146,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>청바지</t>
+          <t>희재</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>부석순 (SEVENTEEN)</t>
+          <t>성시경</t>
         </is>
       </c>
     </row>
@@ -6166,12 +6166,12 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>잘가요 내사랑</t>
+          <t>인사</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>정동원 (Jeong Dong Won)</t>
+          <t>범진</t>
         </is>
       </c>
     </row>
@@ -6186,12 +6186,12 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Cruel Summer</t>
+          <t>물론</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>허각</t>
         </is>
       </c>
     </row>
@@ -6206,12 +6206,12 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>헛살았네</t>
+          <t>Stay</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>박서진</t>
+          <t>The Kid LAROI &amp; Justin Bieber</t>
         </is>
       </c>
     </row>
@@ -6226,12 +6226,12 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>꿀팁</t>
+          <t>사막에서 꽃을 피우듯</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>박서진</t>
+          <t>우디 (Woody)</t>
         </is>
       </c>
     </row>
@@ -6246,12 +6246,12 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>만약에</t>
+          <t>어른</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>정동원 (Jeong Dong Won)</t>
+          <t>Sondia</t>
         </is>
       </c>
     </row>
@@ -6266,12 +6266,12 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>To. X</t>
+          <t>청바지</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>부석순 (SEVENTEEN)</t>
         </is>
       </c>
     </row>
@@ -6286,12 +6286,12 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>I Don't Think That I Like Her</t>
+          <t>참 다행이야</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>Spapa</t>
         </is>
       </c>
     </row>
@@ -6306,12 +6306,12 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>여백</t>
+          <t>무제(無題) (Untitled, 2014)</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>정동원 (Jeong Dong Won)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -6326,12 +6326,12 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Supernatural</t>
+          <t>그대가 내 안에 박혔다 (그내박)</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>순순희 (기태)</t>
         </is>
       </c>
     </row>
@@ -6346,12 +6346,12 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>흥해라</t>
+          <t>Love Lee</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>박서진</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -6366,12 +6366,12 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>꿀팁 (살림남 Ver.)</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>박서진</t>
+          <t>Anne-Marie</t>
         </is>
       </c>
     </row>
@@ -6386,12 +6386,12 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>공주에서</t>
+          <t>Congratulations</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>박서진</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -6406,12 +6406,12 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>별아 별아</t>
+          <t>Sticky</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>박서진</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
@@ -6426,12 +6426,12 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>붉은 입술</t>
+          <t>취중고백</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>박서진</t>
+          <t>김민석</t>
         </is>
       </c>
     </row>
@@ -6446,12 +6446,12 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>춘몽</t>
+          <t>Off My Face</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>박서진</t>
+          <t>Justin Bieber</t>
         </is>
       </c>
     </row>

--- a/과제/MP4/MP4.xlsx
+++ b/과제/MP4/MP4.xlsx
@@ -486,12 +486,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>Love Hangover (feat. Dominic Fike)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
@@ -506,12 +506,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>toxic till the end</t>
+          <t>Whiplash</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>로제(ROSÉ)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>toxic till the end</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -586,12 +586,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>너와의 모든 지금</t>
+          <t>APT.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>재쓰비 (JAESSBEE)</t>
+          <t>로제(ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DRIP</t>
+          <t>너와의 모든 지금</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BABYMONSTER</t>
+          <t>재쓰비 (JAESSBEE)</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>POWER</t>
+          <t>DRIP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>BABYMONSTER</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>HAPPY</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>POWER</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>number one girl</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>로제(ROSÉ)</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>UP (KARINA Solo)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>Die With A Smile</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>Lady GaGa(레이디 가가)</t>
         </is>
       </c>
     </row>
@@ -806,12 +806,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Supersonic</t>
+          <t>핑계</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>프로미스나인</t>
+          <t>권진아</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>UP (KARINA Solo)</t>
+          <t>Hug (포옹)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>number one girl</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>로제(ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>How Sweet</t>
+          <t>내 이름 맑음</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>한 페이지가 될 수 있게</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lady GaGa(레이디 가가)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Love me or Leave me</t>
+          <t>고민중독</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>내게 사랑이 뭐냐고 물어본다면</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -966,12 +966,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Love wins all</t>
+          <t>Igloo</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>아이유(IU)</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Igloo</t>
+          <t>소나기</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>이클립스 (ECLIPSE)</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>우리의 다정한 계절 속에 (Season of Memories)</t>
+          <t>Supernatural</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>여자친구(GFRIEND)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1026,12 +1026,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Supernatural</t>
+          <t>우리의 다정한 계절 속에 (Season of Memories)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>여자친구(GFRIEND)</t>
         </is>
       </c>
     </row>
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Small girl (feat. 도경수(D.O.))</t>
+          <t>첫 만남은 계획대로 되지 않아</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>이영지</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>녹아내려요</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>나는 아픈 건 딱 질색이니까</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>AKMU(악뮤)</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>How Sweet</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>내게 사랑이 뭐냐고 물어본다면</t>
+          <t>Armageddon</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1146,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>천상연</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>이창섭</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Armageddon</t>
+          <t>Love wins all</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>아이유(IU)</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>나는 아픈 건 딱 질색이니까</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>밤양갱</t>
+          <t>슬픈 초대장</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>비비(BIBI)</t>
+          <t>순순희 (지환)</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hug (포옹)</t>
+          <t>예뻤어</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1266,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>Letter To Myself</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>AKMU(악뮤)</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
     </row>
@@ -1286,12 +1286,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ditto</t>
+          <t>Supersonic</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>프로미스나인</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1306,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>Ditto</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1326,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Letter To Myself</t>
+          <t>Magnetic</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>슬픈 초대장</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>순순희 (지환)</t>
+          <t>폴킴(Paul Kim)</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>내가 널 지켜줄게</t>
+          <t>청춘만화</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>폴킴(Paul Kim)</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>녹아내려요</t>
+          <t>에피소드</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1426,12 +1426,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>Attention</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>너드커넥션(Nerd Connection)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1446,12 +1446,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ETA</t>
+          <t>I AM</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -1466,12 +1466,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>청춘만화</t>
+          <t>Bubble Gum</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1486,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Bubble Gum</t>
+          <t>숲</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>최유리</t>
         </is>
       </c>
     </row>
@@ -1506,12 +1506,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Magnetic</t>
+          <t>너의 모든 순간</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>성시경</t>
         </is>
       </c>
     </row>
@@ -1526,12 +1526,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>무제(無題) (Untitled, 2014)</t>
+          <t>Small girl (feat. 도경수(D.O.))</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>이영지</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>비의 랩소디</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>너드커넥션(Nerd Connection)</t>
         </is>
       </c>
     </row>
@@ -1566,12 +1566,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>To. X</t>
+          <t>Congratulations</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1586,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Girls Never Die</t>
+          <t>Love me or Leave me</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>tripleS (트리플에스)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>Cherish (My Love)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>폴킴(Paul Kim)</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
     </row>
@@ -1626,12 +1626,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cherish (My Love)</t>
+          <t>무제(無題) (Untitled, 2014)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>해야 (HEYA)</t>
+          <t>To. X</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
     </row>
@@ -1666,12 +1666,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>너의 모든 순간</t>
+          <t>Sticky</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>After LIKE</t>
+          <t>Drama</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -1706,12 +1706,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SPOT! (feat. JENNIE)</t>
+          <t>비의 랩소디</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>지코 (ZICO)</t>
+          <t>임재현</t>
         </is>
       </c>
     </row>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sticky</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>잔나비</t>
         </is>
       </c>
     </row>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>After LIKE</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>헤어지자 말해요</t>
+          <t>내가 널 지켜줄게</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t>폴킴(Paul Kim)</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1806,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>drinks or coffee</t>
+          <t>아직 거기 살아</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>로제(ROSÉ)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1826,12 +1826,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Live My Life</t>
+          <t>Strategy (feat. Megan Thee Stallion)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>TWICE (트와이스)</t>
         </is>
       </c>
     </row>
@@ -1846,12 +1846,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>사건의 지평선</t>
+          <t>drinks or coffee</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>윤하(Younha/ユンナ)</t>
+          <t>로제(ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -1866,12 +1866,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>LOVE DIVE</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>미안해 미워해 사랑해</t>
+          <t>Girls Never Die</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Crush</t>
+          <t>tripleS (트리플에스)</t>
         </is>
       </c>
     </row>
@@ -1906,12 +1906,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Congratulations</t>
+          <t>밤양갱</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>비비(BIBI)</t>
         </is>
       </c>
     </row>
@@ -1926,12 +1926,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>클락션 (Klaxon)</t>
+          <t>해야 (HEYA)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -1946,12 +1946,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>숲</t>
+          <t>Cruel Summer</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>최유리</t>
+          <t>Taylor Swift(테일러 스위프트)</t>
         </is>
       </c>
     </row>
@@ -1966,12 +1966,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>첫 눈</t>
+          <t>ETA</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>EXO</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>네모네모</t>
+          <t>사건의 지평선</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>YENA (최예나)</t>
+          <t>윤하(Younha/ユンナ)</t>
         </is>
       </c>
     </row>
@@ -2006,12 +2006,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>살기 위해서</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>순순희</t>
+          <t>멜로망스(MeloMance)</t>
         </is>
       </c>
     </row>
@@ -2026,12 +2026,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>청혼하지 않을 이유를 못 찾았어</t>
+          <t>MEOW</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>MEOVV (미야오)</t>
         </is>
       </c>
     </row>
@@ -2046,12 +2046,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>내가 S면 넌 나의 N이 되어줘</t>
+          <t>Live My Life</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Boom Boom Bass</t>
+          <t>미안해 미워해 사랑해</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>Crush</t>
         </is>
       </c>
     </row>
@@ -2106,12 +2106,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>헤어지자 말해요</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>박재정</t>
         </is>
       </c>
     </row>
@@ -2126,12 +2126,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>네모네모</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>멜로망스(MeloMance)</t>
+          <t>YENA (최예나)</t>
         </is>
       </c>
     </row>
@@ -2146,12 +2146,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>LOVE DIVE</t>
+          <t>Spicy</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -2166,12 +2166,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Spicy</t>
+          <t>청혼하지 않을 이유를 못 찾았어</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -2186,12 +2186,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>우연 (우울한 우연)</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>베이비복스(Baby V.O.X)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Storm</t>
+          <t>그녀가 웃었다</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>김보경 (NEON)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>그녀가 웃었다</t>
+          <t>살기 위해서</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>순순희</t>
         </is>
       </c>
     </row>
@@ -2246,12 +2246,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>시작의 아이</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>마크툽(MAKTUB)</t>
         </is>
       </c>
     </row>
@@ -2266,12 +2266,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Dangerously</t>
+          <t>내가 S면 넌 나의 N이 되어줘</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Charlie Puth(찰리 푸스)</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2286,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Strategy (feat. Megan Thee Stallion)</t>
+          <t>Boom Boom Bass</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>TWICE (트와이스)</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
@@ -2306,12 +2306,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>MEOW</t>
+          <t>SPOT! (feat. JENNIE)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>MEOVV (미야오)</t>
+          <t>지코 (ZICO)</t>
         </is>
       </c>
     </row>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Cruel Summer</t>
+          <t>Dangerously</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Taylor Swift(테일러 스위프트)</t>
+          <t>Charlie Puth(찰리 푸스)</t>
         </is>
       </c>
     </row>
@@ -2346,12 +2346,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>그걸 사랑이라고 말하지마</t>
+          <t>Gravity</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>다비치</t>
+          <t>FIFTY FIFTY</t>
         </is>
       </c>
     </row>
@@ -2366,12 +2366,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>stay a little longer</t>
+          <t>클락션 (Klaxon)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>로제(ROSÉ)</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Gravity</t>
+          <t>우연 (우울한 우연)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>FIFTY FIFTY</t>
+          <t>베이비복스(Baby V.O.X)</t>
         </is>
       </c>
     </row>
@@ -2406,12 +2406,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>시작의 아이</t>
+          <t>stay a little longer</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>마크툽(MAKTUB)</t>
+          <t>로제(ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>아직 거기 살아</t>
+          <t>LOVE 2</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>브브걸 (BBGIRLS)</t>
         </is>
       </c>
     </row>
@@ -2446,12 +2446,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Older</t>
+          <t>luther</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Sasha Alex Sloan</t>
+          <t>Kendrick Lamar(켄드릭 라마)</t>
         </is>
       </c>
     </row>
@@ -2706,12 +2706,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>내게 사랑이 뭐냐고 물어본다면</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -2726,12 +2726,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>내게 사랑이 뭐냐고 물어본다면</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -2746,12 +2746,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>WAY 4 LUV</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -2766,12 +2766,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>Welcome to the Show</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -2786,12 +2786,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>UP (KARINA Solo)</t>
+          <t>내 이름 맑음</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Pump Up The Volume!</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -2846,12 +2846,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>UP (KARINA Solo)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>우리들의 블루스</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>온기</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2906,12 +2906,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>슬픈 초대장</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>순순희(지환)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -2926,12 +2926,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>WAY 4 LUV</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -2946,12 +2946,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>한 페이지가 될 수 있게</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>온기</t>
+          <t>모래 알갱이</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -2986,12 +2986,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Pump Up The Volume!</t>
+          <t>천상연</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>이창섭</t>
         </is>
       </c>
     </row>
@@ -3006,12 +3006,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>우리 영화</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -3026,12 +3026,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>다시 만날 수 있을까</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>모래 알갱이</t>
+          <t>이제 나만 믿어요</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>From</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3086,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Love wins all</t>
+          <t>슬픈 초대장</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>순순희(지환)</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>다시 만날 수 있을까</t>
+          <t>Do or Die</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3126,12 +3126,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>무지개</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3146,12 +3146,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>How Sweet</t>
+          <t>London Boy</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3166,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>우리 영화</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -3186,12 +3186,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>이제 나만 믿어요</t>
+          <t>Watch Me Woo!</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -3206,12 +3206,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>Polaroid</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3226,12 +3226,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Supersonic</t>
+          <t>인생찬가</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>프로미스나인</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Do or Die</t>
+          <t>고민중독</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -3266,12 +3266,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>나는 아픈 건 딱 질색이니까</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3286,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>무지개</t>
+          <t>Merry PLLIstmas</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -3306,12 +3306,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Polaroid</t>
+          <t>예뻤어</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>London Boy</t>
+          <t>연애편지</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3346,12 +3346,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>너의 모든 순간</t>
+          <t>버추얼 아이돌</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>PLAVE</t>
         </is>
       </c>
     </row>
@@ -3366,12 +3366,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>From</t>
+          <t>Love wins all</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>아이유</t>
         </is>
       </c>
     </row>
@@ -3386,12 +3386,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>How Sweet</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -3406,12 +3406,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>인생찬가</t>
+          <t>첫 만남은 계획대로 되지 않아</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
@@ -3426,12 +3426,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Small girl (feat. 도경수(D.O.))</t>
+          <t>Supersonic</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>이영지</t>
+          <t>프로미스나인</t>
         </is>
       </c>
     </row>
@@ -3446,12 +3446,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>보금자리</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>number one girl</t>
+          <t>너의 모든 순간</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>성시경</t>
         </is>
       </c>
     </row>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Watch Me Woo!</t>
+          <t>나는 아픈 건 딱 질색이니까</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -3506,12 +3506,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>비의 랩소디</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>너드커넥션 (Nerd Connection)</t>
         </is>
       </c>
     </row>
@@ -3526,12 +3526,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Magnetic</t>
+          <t>Small girl (feat. 도경수(D.O.))</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>이영지</t>
         </is>
       </c>
     </row>
@@ -3546,12 +3546,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>number one girl</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -3566,12 +3566,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>미안해 미워해 사랑해</t>
+          <t>I AM</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Crush</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>연애편지</t>
+          <t>청바지</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>부석순 (SEVENTEEN)</t>
         </is>
       </c>
     </row>
@@ -3606,12 +3606,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>청바지</t>
+          <t>비의 랩소디</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>부석순 (SEVENTEEN)</t>
+          <t>임재현</t>
         </is>
       </c>
     </row>
@@ -3626,12 +3626,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>헤어지자 말해요</t>
+          <t>에피소드</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -3646,12 +3646,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Ditto</t>
+          <t>살기 위해서</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>순순희</t>
         </is>
       </c>
     </row>
@@ -3666,12 +3666,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>첫 눈</t>
+          <t>미안해 미워해 사랑해</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>EXO</t>
+          <t>Crush</t>
         </is>
       </c>
     </row>
@@ -3686,12 +3686,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>Magnetic</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
     </row>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Igloo</t>
+          <t>Hug (포옹)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Armageddon</t>
+          <t>무제(無題) (Untitled, 2014)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -3746,12 +3746,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>무제(無題) (Untitled, 2014)</t>
+          <t>헤어지자 말해요</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>박재정</t>
         </is>
       </c>
     </row>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>해야 (HEYA)</t>
+          <t>Igloo</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
@@ -3786,12 +3786,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>눈이 오잖아(Feat.헤이즈)</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>폴킴</t>
         </is>
       </c>
     </row>
@@ -3806,12 +3806,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>살기 위해서</t>
+          <t>Ditto</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>순순희</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -3826,12 +3826,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Hug (포옹)</t>
+          <t>Armageddon</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -3846,12 +3846,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Merry PLLIstmas</t>
+          <t>해야 (HEYA)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -3866,12 +3866,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>보금자리</t>
+          <t>첫 눈</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>EXO</t>
         </is>
       </c>
     </row>
@@ -3926,12 +3926,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>클락션 (Klaxon)</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -3946,12 +3946,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>Seven (feat. Latto) - Clean Ver.</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>정국</t>
         </is>
       </c>
     </row>
@@ -3966,12 +3966,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>청춘만화</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -3986,12 +3986,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>버추얼 아이돌</t>
+          <t>클락션 (Klaxon)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -4006,12 +4006,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>청춘만화</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>잔나비</t>
         </is>
       </c>
     </row>
@@ -4026,12 +4026,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Sticky</t>
+          <t>Love Hangover (feat. Dominic Fike)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
@@ -4046,12 +4046,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Seven (feat. Latto) - Clean Ver.</t>
+          <t>눈이 오잖아(Feat.헤이즈)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -4066,12 +4066,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>녹아내려요</t>
+          <t>Die With A Smile</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>Lady Gaga</t>
         </is>
       </c>
     </row>
@@ -4086,12 +4086,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Supernatural</t>
+          <t>녹아내려요</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -4106,12 +4106,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Love 119</t>
+          <t>Supernatural</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -4126,12 +4126,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>청혼하지 않을 이유를 못 찾았어</t>
+          <t>Sticky</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
@@ -4146,12 +4146,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>청혼하지 않을 이유를 못 찾았어</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>멜로망스</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Boom Boom Bass</t>
+          <t>Love 119</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4186,12 +4186,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>To. X</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>멜로망스</t>
         </is>
       </c>
     </row>
@@ -4206,12 +4206,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>취중고백</t>
+          <t>Boom Boom Bass</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>김민석</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
@@ -4226,12 +4226,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SPOT! (feat. JENNIE)</t>
+          <t>To. X</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>지코 (ZICO)</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
     </row>
@@ -4246,12 +4246,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>사건의 지평선</t>
+          <t>SPOT! (feat. JENNIE)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>윤하 (YOUNHA)</t>
+          <t>지코 (ZICO)</t>
         </is>
       </c>
     </row>
@@ -4266,12 +4266,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Bubble Gum</t>
+          <t>취중고백</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>김민석</t>
         </is>
       </c>
     </row>
@@ -4286,12 +4286,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>사막에서 꽃을 피우듯</t>
+          <t>사건의 지평선</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>우디 (Woody)</t>
+          <t>윤하 (YOUNHA)</t>
         </is>
       </c>
     </row>
@@ -4306,12 +4306,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>Dynamite</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>방탄소년단</t>
         </is>
       </c>
     </row>
@@ -4326,12 +4326,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Dynamite</t>
+          <t>Bubble Gum</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -4346,12 +4346,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Cherish (My Love)</t>
+          <t>봄날</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>방탄소년단</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>봄날</t>
+          <t>Congratulations</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -4386,12 +4386,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Congratulations</t>
+          <t>사막에서 꽃을 피우듯</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>우디 (Woody)</t>
         </is>
       </c>
     </row>
@@ -4406,12 +4406,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>Drama</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Lady Gaga</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -4426,12 +4426,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>네모네모</t>
+          <t>Cherish (My Love)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>YENA (최예나)</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
     </row>
@@ -4446,12 +4446,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>우리의 다정한 계절 속에 (Season of Memories)</t>
+          <t>네모네모</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>여자친구 (GFRIEND)</t>
+          <t>YENA (최예나)</t>
         </is>
       </c>
     </row>
@@ -4486,12 +4486,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>REBEL HEART</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ) &amp; Bruno Mars</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -4506,12 +4506,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>Whiplash</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>나는 반딧불</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>황가람</t>
         </is>
       </c>
     </row>
@@ -4546,12 +4546,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>APT.</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>로제 (ROSÉ) &amp; Bruno Mars</t>
         </is>
       </c>
     </row>
@@ -4566,12 +4566,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>Drowning</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>WOODZ</t>
         </is>
       </c>
     </row>
@@ -4586,12 +4586,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>toxic till the end</t>
+          <t>HAPPY</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -4606,12 +4606,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Drowning</t>
+          <t>toxic till the end</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>WOODZ</t>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -4646,12 +4646,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>내게 사랑이 뭐냐고 물어본다면</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -4666,12 +4666,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>POWER</t>
+          <t>내 이름 맑음</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -4686,12 +4686,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>내게 사랑이 뭐냐고 물어본다면</t>
+          <t>POWER</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -4746,12 +4746,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>소나기</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>이클립스 (ECLIPSE)</t>
         </is>
       </c>
     </row>
@@ -4766,12 +4766,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -4826,12 +4826,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>DRIP</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>BABYMONSTER</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4846,12 +4846,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>UP (KARINA Solo)</t>
+          <t>예뻤어</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -4866,12 +4866,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>DRIP</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>BABYMONSTER</t>
         </is>
       </c>
     </row>
@@ -4886,12 +4886,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
@@ -4906,12 +4906,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>UP (KARINA Solo)</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -4926,12 +4926,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>나는 아픈 건 딱 질색이니까</t>
+          <t>천상연</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>이창섭</t>
         </is>
       </c>
     </row>
@@ -4946,12 +4946,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>우리들의 블루스</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>이제 나만 믿어요</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -4986,12 +4986,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>나는 아픈 건 딱 질색이니까</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -5006,12 +5006,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>How Sweet</t>
+          <t>다시 만날 수 있을까</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5026,12 +5026,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Love wins all</t>
+          <t>오늘만 I LOVE YOU</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
     </row>
@@ -5046,12 +5046,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>모래 알갱이</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5066,12 +5066,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>비의 랩소디</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5086,12 +5086,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Small girl (Feat. 도경수 (D.O.))</t>
+          <t>에피소드</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>이영지</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -5106,12 +5106,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>봄여름가을겨울 (Still Life)</t>
+          <t>온기</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>BIGBANG (빅뱅)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5126,12 +5126,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>무지개</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5146,12 +5146,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>Love wins all</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
     </row>
@@ -5166,12 +5166,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>해야 (HEYA)</t>
+          <t>첫 만남은 계획대로 되지 않아</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
     </row>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>모래 알갱이</t>
+          <t>London Boy</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5206,12 +5206,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>클락션 (Klaxon)</t>
+          <t>Love Hangover (Feat. Dominic Fike)</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>제니 (JENNIE) &amp; Dominic Fike</t>
         </is>
       </c>
     </row>
@@ -5226,12 +5226,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>헤어지자 말해요</t>
+          <t>Polaroid</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5246,12 +5246,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>청춘만화</t>
+          <t>Do or Die</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Magnetic</t>
+          <t>인생찬가</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>아일릿 (ILLIT)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>온기</t>
+          <t>연애편지</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>보금자리</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5326,12 +5326,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>How Sweet</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -5346,12 +5346,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>이제 나만 믿어요</t>
+          <t>비의 랩소디</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>임재현</t>
         </is>
       </c>
     </row>
@@ -5366,12 +5366,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>너의 모든 순간</t>
+          <t>핑계</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>권진아</t>
         </is>
       </c>
     </row>
@@ -5386,12 +5386,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Polaroid</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -5406,12 +5406,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Do or Die</t>
+          <t>Small girl (Feat. 도경수 (D.O.))</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>이영지</t>
         </is>
       </c>
     </row>
@@ -5426,12 +5426,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>사건의 지평선</t>
+          <t>청춘만화</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>윤하 (YOUNHA)</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -5446,12 +5446,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>다정히 내 이름을 부르면</t>
+          <t>봄여름가을겨울 (Still Life)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>경서예지 &amp; 전건호</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
     </row>
@@ -5466,12 +5466,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>헤어지자 말해요</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t>박재정</t>
         </is>
       </c>
     </row>
@@ -5486,12 +5486,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>SPOT! (Feat. JENNIE)</t>
+          <t>Storm</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>지코 (ZICO)</t>
+          <t>김보경 (NEON)</t>
         </is>
       </c>
     </row>
@@ -5506,12 +5506,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>다시 만날 수 있을까</t>
+          <t>해야 (HEYA)</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -5526,12 +5526,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>I Don't Think That I Like Her</t>
+          <t>클락션 (Klaxon)</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
     </row>
@@ -5546,12 +5546,12 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>청혼하지 않을 이유를 못 찾았어</t>
+          <t>다정히 내 이름을 부르면</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>경서예지 &amp; 전건호</t>
         </is>
       </c>
     </row>
@@ -5566,12 +5566,12 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>인생찬가</t>
+          <t>너의 모든 순간</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>성시경</t>
         </is>
       </c>
     </row>
@@ -5586,12 +5586,12 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>연애편지</t>
+          <t>살기 위해서</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>순순희</t>
         </is>
       </c>
     </row>
@@ -5606,12 +5606,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>심 (心)</t>
+          <t>I AM</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>DK (디셈버)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -5626,12 +5626,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>보금자리</t>
+          <t>Magnetic</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>아일릿 (ILLIT)</t>
         </is>
       </c>
     </row>
@@ -5646,12 +5646,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>살기 위해서</t>
+          <t>Older</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>순순희</t>
+          <t>Sasha Alex Sloan</t>
         </is>
       </c>
     </row>
@@ -5666,12 +5666,12 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>미안해 미워해 사랑해</t>
+          <t>Die With A Smile</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Crush</t>
+          <t>Lady Gaga &amp; Bruno Mars</t>
         </is>
       </c>
     </row>
@@ -5686,12 +5686,12 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>I Don't Think That I Like Her</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>멜로망스 (MeloMance)</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
     </row>
@@ -5706,12 +5706,12 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>무지개</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>너드커넥션 (Nerd Connection)</t>
         </is>
       </c>
     </row>
@@ -5726,12 +5726,12 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Cruel Summer</t>
+          <t>청혼하지 않을 이유를 못 찾았어</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -5746,12 +5746,12 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Older</t>
+          <t>SPOT! (Feat. JENNIE)</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Sasha Alex Sloan</t>
+          <t>지코 (ZICO)</t>
         </is>
       </c>
     </row>
@@ -5766,12 +5766,12 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>사건의 지평선</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>윤하 (YOUNHA)</t>
         </is>
       </c>
     </row>
@@ -5786,12 +5786,12 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Ditto</t>
+          <t>미안해 미워해 사랑해</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>Crush</t>
         </is>
       </c>
     </row>
@@ -5806,12 +5806,12 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>number one girl</t>
+          <t>심 (心)</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>DK (디셈버)</t>
         </is>
       </c>
     </row>
@@ -5826,12 +5826,12 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Supernatural</t>
+          <t>Igloo</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>KISS OF LIFE</t>
         </is>
       </c>
     </row>
@@ -5846,12 +5846,12 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>잘 지내자, 우리 (여름날 우리 X 로이킴)</t>
+          <t>청바지</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>부석순 (SEVENTEEN)</t>
         </is>
       </c>
     </row>
@@ -5866,12 +5866,12 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Armageddon</t>
+          <t>Supernatural</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -5886,12 +5886,12 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Supersonic</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>프로미스나인</t>
+          <t>멜로망스 (MeloMance)</t>
         </is>
       </c>
     </row>
@@ -5906,12 +5906,12 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>Armageddon</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -5926,12 +5926,12 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>London Boy</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>폴킴</t>
         </is>
       </c>
     </row>
@@ -5946,12 +5946,12 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>number one girl</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -5966,12 +5966,12 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>잘 지내자, 우리 (여름날 우리 X 로이킴)</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Lady Gaga &amp; Bruno Mars</t>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -5986,12 +5986,12 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>뱅뱅뱅 (BANG BANG BANG)</t>
+          <t>Ditto</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>BIGBANG (빅뱅)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -6006,12 +6006,12 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>밤양갱</t>
+          <t>사막에서 꽃을 피우듯</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>비비 (BIBI)</t>
+          <t>우디 (Woody)</t>
         </is>
       </c>
     </row>
@@ -6026,12 +6026,12 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>To. X</t>
+          <t>Cruel Summer</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>Taylor Swift</t>
         </is>
       </c>
     </row>
@@ -6046,12 +6046,12 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Igloo</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>잔나비</t>
         </is>
       </c>
     </row>
@@ -6066,12 +6066,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>녹아내려요</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -6086,12 +6086,12 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>벌써 일년</t>
+          <t>Supersonic</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>브라운 아이즈</t>
+          <t>프로미스나인</t>
         </is>
       </c>
     </row>
@@ -6106,12 +6106,12 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Dangerously</t>
+          <t>녹아내려요</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -6126,12 +6126,12 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>When I Get Old</t>
+          <t>무제(無題) (Untitled, 2014)</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Christopher &amp; 청하</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -6146,12 +6146,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>희재</t>
+          <t>시작의 아이</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>마크툽 (Maktub)</t>
         </is>
       </c>
     </row>
@@ -6166,12 +6166,12 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>인사</t>
+          <t>To. X</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>범진</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
     </row>
@@ -6186,12 +6186,12 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>물론</t>
+          <t>벌써 일년</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>허각</t>
+          <t>브라운 아이즈</t>
         </is>
       </c>
     </row>
@@ -6206,12 +6206,12 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Stay</t>
+          <t>희재</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>The Kid LAROI &amp; Justin Bieber</t>
+          <t>성시경</t>
         </is>
       </c>
     </row>
@@ -6226,12 +6226,12 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>사막에서 꽃을 피우듯</t>
+          <t>어른</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>우디 (Woody)</t>
+          <t>Sondia</t>
         </is>
       </c>
     </row>
@@ -6246,12 +6246,12 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>어른</t>
+          <t>참 다행이야</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Sondia</t>
+          <t>Spapa</t>
         </is>
       </c>
     </row>
@@ -6266,12 +6266,12 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>청바지</t>
+          <t>뱅뱅뱅 (BANG BANG BANG)</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>부석순 (SEVENTEEN)</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
     </row>
@@ -6286,12 +6286,12 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>참 다행이야</t>
+          <t>밤양갱</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Spapa</t>
+          <t>비비 (BIBI)</t>
         </is>
       </c>
     </row>
@@ -6306,12 +6306,12 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>무제(無題) (Untitled, 2014)</t>
+          <t>인사</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>범진</t>
         </is>
       </c>
     </row>
@@ -6326,12 +6326,12 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>그대가 내 안에 박혔다 (그내박)</t>
+          <t>내 삶의 반</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>순순희 (기태)</t>
+          <t>임재현</t>
         </is>
       </c>
     </row>
@@ -6346,12 +6346,12 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Love Lee</t>
+          <t>Dangerously</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
     </row>
@@ -6366,12 +6366,12 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>When I Get Old</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Anne-Marie</t>
+          <t>Christopher &amp; 청하</t>
         </is>
       </c>
     </row>
@@ -6386,12 +6386,12 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Congratulations</t>
+          <t>그대가 내 안에 박혔다 (그내박)</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>순순희 (기태)</t>
         </is>
       </c>
     </row>
@@ -6406,12 +6406,12 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Sticky</t>
+          <t>숲</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>KISS OF LIFE</t>
+          <t>최유리</t>
         </is>
       </c>
     </row>
@@ -6426,12 +6426,12 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>취중고백</t>
+          <t>Congratulations</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>김민석</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -6446,12 +6446,12 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Off My Face</t>
+          <t>물론</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Justin Bieber</t>
+          <t>허각</t>
         </is>
       </c>
     </row>
